--- a/simulation_data/iterative_algorithm/i_error_level_1_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_1_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.40252335203689</v>
+        <v>90.09485402461534</v>
       </c>
       <c r="D2" t="n">
-        <v>2.705786416798464</v>
+        <v>2.659041735540169</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.87461478438648</v>
+        <v>88.99428729064742</v>
       </c>
       <c r="D3" t="n">
-        <v>2.57611806166094</v>
+        <v>2.145598049543321</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.76375073428562</v>
+        <v>87.45286408269808</v>
       </c>
       <c r="D4" t="n">
-        <v>2.60379807787668</v>
+        <v>2.332203345978726</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.23514579287699</v>
+        <v>87.20611720930225</v>
       </c>
       <c r="D5" t="n">
-        <v>2.370412406149772</v>
+        <v>2.654873842313607</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.68365313898651</v>
+        <v>85.81307016864264</v>
       </c>
       <c r="D6" t="n">
-        <v>2.262672780192996</v>
+        <v>2.448543157918853</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.58232258478975</v>
+        <v>84.86316477732824</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220818243818783</v>
+        <v>2.356803272500408</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.2511845382263</v>
+        <v>84.2663810257576</v>
       </c>
       <c r="D8" t="n">
-        <v>2.51175869028909</v>
+        <v>2.59893084316541</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.99705279423634</v>
+        <v>83.055105882501</v>
       </c>
       <c r="D9" t="n">
-        <v>2.452661909464231</v>
+        <v>2.508417325554118</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.85732085726892</v>
+        <v>82.41966250002567</v>
       </c>
       <c r="D10" t="n">
-        <v>2.409389817954647</v>
+        <v>2.693432388981098</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.13862802159741</v>
+        <v>81.34755617960754</v>
       </c>
       <c r="D11" t="n">
-        <v>2.625376323569958</v>
+        <v>2.493318076340457</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.39567179790754</v>
+        <v>79.63095628489488</v>
       </c>
       <c r="D12" t="n">
-        <v>2.438799016899954</v>
+        <v>2.51124382923374</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92841555179612</v>
+        <v>79.08363787199774</v>
       </c>
       <c r="D13" t="n">
-        <v>2.466697807974072</v>
+        <v>2.503765470816652</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.01557513485534</v>
+        <v>77.92917476775031</v>
       </c>
       <c r="D14" t="n">
-        <v>2.918462433670258</v>
+        <v>2.608850717497667</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.32224006793314</v>
+        <v>76.91174695125403</v>
       </c>
       <c r="D15" t="n">
-        <v>2.424369525168379</v>
+        <v>2.511003587381165</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.69724189599175</v>
+        <v>76.08480816527592</v>
       </c>
       <c r="D16" t="n">
-        <v>2.411772595039779</v>
+        <v>2.417816681843287</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.01515581410914</v>
+        <v>75.16859160664556</v>
       </c>
       <c r="D17" t="n">
-        <v>2.821341173981565</v>
+        <v>2.640948582533802</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.79900063156592</v>
+        <v>74.09609112754107</v>
       </c>
       <c r="D18" t="n">
-        <v>2.591948830839938</v>
+        <v>2.516108194306674</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.9136179389246</v>
+        <v>72.79743842049866</v>
       </c>
       <c r="D19" t="n">
-        <v>2.63375139798867</v>
+        <v>2.489336621546107</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.40801106016269</v>
+        <v>71.86936029241707</v>
       </c>
       <c r="D20" t="n">
-        <v>2.487880032738219</v>
+        <v>2.296662821341741</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.2472093718293</v>
+        <v>70.92276256074538</v>
       </c>
       <c r="D21" t="n">
-        <v>2.81294404740102</v>
+        <v>2.691913497835484</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.26605666698377</v>
+        <v>70.05402328173196</v>
       </c>
       <c r="D22" t="n">
-        <v>2.493943974262351</v>
+        <v>2.408451603538972</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.16191407794075</v>
+        <v>68.84348284172106</v>
       </c>
       <c r="D23" t="n">
-        <v>2.542166756499738</v>
+        <v>2.312846005904703</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.13286849376077</v>
+        <v>67.92591074175365</v>
       </c>
       <c r="D24" t="n">
-        <v>2.333958127253635</v>
+        <v>2.485901029867058</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.2972940641944</v>
+        <v>66.53860284565152</v>
       </c>
       <c r="D25" t="n">
-        <v>2.454361990055251</v>
+        <v>2.527907903409879</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.2898609688536</v>
+        <v>65.6207350174776</v>
       </c>
       <c r="D26" t="n">
-        <v>2.406122793427781</v>
+        <v>2.745236531040709</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.29354502923508</v>
+        <v>64.66332362339902</v>
       </c>
       <c r="D27" t="n">
-        <v>3.027109044336548</v>
+        <v>2.404323715266599</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.13281776522976</v>
+        <v>63.84202340084652</v>
       </c>
       <c r="D28" t="n">
-        <v>2.695000267401843</v>
+        <v>2.298868185190765</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.93164869219748</v>
+        <v>62.57766257494968</v>
       </c>
       <c r="D29" t="n">
-        <v>2.315131321636607</v>
+        <v>2.444330899703738</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.09847981760313</v>
+        <v>62.21145062462746</v>
       </c>
       <c r="D30" t="n">
-        <v>2.777208250364116</v>
+        <v>2.400773683799349</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.09897411665722</v>
+        <v>61.34278925797643</v>
       </c>
       <c r="D31" t="n">
-        <v>2.550342936910427</v>
+        <v>2.34291047722526</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.98308411126361</v>
+        <v>59.5877586927302</v>
       </c>
       <c r="D32" t="n">
-        <v>2.598803866504212</v>
+        <v>2.389827834573371</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.091528723326</v>
+        <v>58.75443793023307</v>
       </c>
       <c r="D33" t="n">
-        <v>2.5041101048936</v>
+        <v>2.417524831330387</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.02656117812006</v>
+        <v>57.46060375677364</v>
       </c>
       <c r="D34" t="n">
-        <v>2.583842782800014</v>
+        <v>2.530558207496176</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.88818355304322</v>
+        <v>56.43366005794861</v>
       </c>
       <c r="D35" t="n">
-        <v>2.871919010063809</v>
+        <v>2.469394785418464</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.28199171416772</v>
+        <v>55.53042046089163</v>
       </c>
       <c r="D36" t="n">
-        <v>2.259208049047889</v>
+        <v>2.310029581860748</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.75216983802304</v>
+        <v>55.52946377207672</v>
       </c>
       <c r="D37" t="n">
-        <v>2.576186012511399</v>
+        <v>2.514612211793775</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.68642167664679</v>
+        <v>53.99311457098828</v>
       </c>
       <c r="D38" t="n">
-        <v>2.667118013214311</v>
+        <v>2.506943079776514</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.22780278423424</v>
+        <v>53.03451878591795</v>
       </c>
       <c r="D39" t="n">
-        <v>2.63747893433451</v>
+        <v>2.315247400720994</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.65943351648737</v>
+        <v>51.95620616419531</v>
       </c>
       <c r="D40" t="n">
-        <v>2.668894774209377</v>
+        <v>2.362617523460993</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.78300600439311</v>
+        <v>51.14728855181619</v>
       </c>
       <c r="D41" t="n">
-        <v>2.694981374112714</v>
+        <v>2.923480739710583</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.85403461471928</v>
+        <v>50.05828930627369</v>
       </c>
       <c r="D42" t="n">
-        <v>2.100340228250428</v>
+        <v>2.774874079437123</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.25910426556471</v>
+        <v>48.98733438552784</v>
       </c>
       <c r="D43" t="n">
-        <v>2.789717695554177</v>
+        <v>2.457057171143392</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.81419566378325</v>
+        <v>48.30172301653083</v>
       </c>
       <c r="D44" t="n">
-        <v>2.664913895635419</v>
+        <v>2.352407919681512</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.74023907934728</v>
+        <v>46.63333662764742</v>
       </c>
       <c r="D45" t="n">
-        <v>2.66370603788563</v>
+        <v>1.999424828391013</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.22125151158627</v>
+        <v>46.33279227637476</v>
       </c>
       <c r="D46" t="n">
-        <v>2.814890131122563</v>
+        <v>2.468284481367555</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.19077204784997</v>
+        <v>44.85084576239466</v>
       </c>
       <c r="D47" t="n">
-        <v>2.445516406093367</v>
+        <v>2.368566415315857</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.83199986878487</v>
+        <v>43.91961151817945</v>
       </c>
       <c r="D48" t="n">
-        <v>2.418051488764489</v>
+        <v>2.61978730115325</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.26564937775102</v>
+        <v>42.67868195090741</v>
       </c>
       <c r="D49" t="n">
-        <v>2.649083171100338</v>
+        <v>2.53374111832137</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.36428433864474</v>
+        <v>41.90310078443974</v>
       </c>
       <c r="D50" t="n">
-        <v>2.895451956521756</v>
+        <v>2.639392613568867</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.28055500372412</v>
+        <v>41.13265953337474</v>
       </c>
       <c r="D51" t="n">
-        <v>2.596290254856096</v>
+        <v>2.329880386590426</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.88967958165824</v>
+        <v>39.89321803392559</v>
       </c>
       <c r="D52" t="n">
-        <v>2.131479522175431</v>
+        <v>2.348456470664646</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.44102929722041</v>
+        <v>38.92799610396385</v>
       </c>
       <c r="D53" t="n">
-        <v>2.729452289742551</v>
+        <v>2.603510277506248</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.29509176749858</v>
+        <v>38.50580513849384</v>
       </c>
       <c r="D54" t="n">
-        <v>2.771792524050082</v>
+        <v>2.587321236216897</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.04376009689528</v>
+        <v>37.08236187927663</v>
       </c>
       <c r="D55" t="n">
-        <v>2.266508163952943</v>
+        <v>2.224396578168702</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.99058520086525</v>
+        <v>36.29210644762325</v>
       </c>
       <c r="D56" t="n">
-        <v>2.777966562729089</v>
+        <v>2.381991881464758</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.07053966931473</v>
+        <v>34.82074656037443</v>
       </c>
       <c r="D57" t="n">
-        <v>2.457018750789679</v>
+        <v>2.718266637420984</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.16582488310193</v>
+        <v>33.50575708104567</v>
       </c>
       <c r="D58" t="n">
-        <v>2.701401328142296</v>
+        <v>2.587591981444395</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.01714039338154</v>
+        <v>32.9967366594153</v>
       </c>
       <c r="D59" t="n">
-        <v>2.816044091034858</v>
+        <v>2.614706349012228</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.10950832676863</v>
+        <v>32.07663746470816</v>
       </c>
       <c r="D60" t="n">
-        <v>2.87919434795657</v>
+        <v>2.634044716677714</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.05123542248704</v>
+        <v>30.80399652094224</v>
       </c>
       <c r="D61" t="n">
-        <v>2.469871588856769</v>
+        <v>2.698363047958042</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.33803256144394</v>
+        <v>30.05129070586595</v>
       </c>
       <c r="D62" t="n">
-        <v>2.53250439698101</v>
+        <v>2.716911233554983</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.87722480801243</v>
+        <v>28.92167194935691</v>
       </c>
       <c r="D63" t="n">
-        <v>2.33559254210132</v>
+        <v>2.689608959999973</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.04531923403345</v>
+        <v>27.9459068836402</v>
       </c>
       <c r="D64" t="n">
-        <v>2.755705073238344</v>
+        <v>2.648309290453853</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.10705529116255</v>
+        <v>27.34227291274228</v>
       </c>
       <c r="D65" t="n">
-        <v>2.379635886940009</v>
+        <v>2.344677065390655</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.63349348785128</v>
+        <v>26.14753972253273</v>
       </c>
       <c r="D66" t="n">
-        <v>2.543793348727129</v>
+        <v>2.494195706044109</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.7940711365585</v>
+        <v>24.93704135422552</v>
       </c>
       <c r="D67" t="n">
-        <v>2.48428041211518</v>
+        <v>2.528533505080584</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.21258594420677</v>
+        <v>24.16436700025547</v>
       </c>
       <c r="D68" t="n">
-        <v>2.759900392464306</v>
+        <v>2.223956899588596</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.10246293891023</v>
+        <v>22.4846107064729</v>
       </c>
       <c r="D69" t="n">
-        <v>2.627102388753831</v>
+        <v>2.753748021026696</v>
       </c>
     </row>
   </sheetData>
